--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1534934.094152381</v>
+        <v>1527923.365036386</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>283.366045700795</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>175.2493044246653</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -786,16 +786,16 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>194.7962287215936</v>
       </c>
       <c r="V3" t="n">
-        <v>35.13685922632745</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>20.25064477991779</v>
       </c>
       <c r="W4" t="n">
-        <v>274.9268295190242</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>317.3866197029684</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -944,25 +944,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6170769756643654</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,10 +1038,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>179.75733924242</v>
+        <v>129.6916825288746</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.28770282458314</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.07869429521005</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>387.3284476149023</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>128.2558016741074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1303,13 +1303,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.30488169627557</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1382,13 +1382,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>120.0961968842567</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>56.90133847132091</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.8152384873527</v>
       </c>
       <c r="E13" t="n">
         <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362797</v>
+        <v>18.12732193073169</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1664,7 +1664,7 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>12.54612284480604</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>77.17625677145411</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>135.3161628209462</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135908</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
         <v>6.593776422875436</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219444</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838885</v>
+        <v>24.17382596574978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828898</v>
+        <v>52.06849973564991</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043173</v>
+        <v>70.57601873167823</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459971</v>
+        <v>55.72314698196064</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643943</v>
+        <v>41.29686219380037</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931855</v>
+        <v>41.22330424667948</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908581</v>
+        <v>42.97275566644674</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147795</v>
+        <v>53.79159358883888</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804999</v>
+        <v>41.14384575541092</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922192</v>
+        <v>18.98356133658285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367784</v>
+        <v>9.88205970103877</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920516</v>
+        <v>88.00800320656609</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>342.5780228150753</v>
+        <v>1186.917057064747</v>
       </c>
       <c r="C2" t="n">
-        <v>342.5780228150753</v>
+        <v>1186.917057064747</v>
       </c>
       <c r="D2" t="n">
-        <v>342.5780228150753</v>
+        <v>1186.917057064747</v>
       </c>
       <c r="E2" t="n">
-        <v>342.5780228150753</v>
+        <v>1186.917057064747</v>
       </c>
       <c r="F2" t="n">
-        <v>329.7239883854571</v>
+        <v>770.0226185947243</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>356.8598630827275</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L2" t="n">
-        <v>681.4657240221119</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1219.724509032204</v>
+        <v>1048.426217084555</v>
       </c>
       <c r="N2" t="n">
-        <v>1219.724509032204</v>
+        <v>1562.028895694244</v>
       </c>
       <c r="O2" t="n">
-        <v>1659.764109924533</v>
+        <v>2002.068496586572</v>
       </c>
       <c r="P2" t="n">
-        <v>2007.951602056055</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238216</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="U2" t="n">
-        <v>1529.016082672814</v>
+        <v>1557.916092096459</v>
       </c>
       <c r="V2" t="n">
-        <v>1529.016082672814</v>
+        <v>1557.916092096459</v>
       </c>
       <c r="W2" t="n">
-        <v>1529.016082672814</v>
+        <v>1186.917057064747</v>
       </c>
       <c r="X2" t="n">
-        <v>1139.563477605871</v>
+        <v>1186.917057064747</v>
       </c>
       <c r="Y2" t="n">
-        <v>743.0727685264721</v>
+        <v>1186.917057064747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>704.4227390072571</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>553.7685085673493</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>1658.262687146767</v>
+        <v>1561.559659207234</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1874.261482913895</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1677.497615518346</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1454.957613889413</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1224.8403680227</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1035.533290372711</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>856.2190734482184</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475497</v>
+        <v>798.5940831830762</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475497</v>
+        <v>798.5940831830762</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475497</v>
+        <v>642.960970085591</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475497</v>
+        <v>487.4021579447936</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>742.1265981188567</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>506.4075462870908</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>506.4075462870908</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V4" t="n">
-        <v>506.4075462870908</v>
+        <v>798.5940831830762</v>
       </c>
       <c r="W4" t="n">
-        <v>228.7036780860562</v>
+        <v>798.5940831830762</v>
       </c>
       <c r="X4" t="n">
-        <v>228.7036780860562</v>
+        <v>798.5940831830762</v>
       </c>
       <c r="Y4" t="n">
-        <v>228.7036780860562</v>
+        <v>798.5940831830762</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>203.8091622035011</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="C5" t="n">
-        <v>203.8091622035011</v>
+        <v>1643.993922605374</v>
       </c>
       <c r="D5" t="n">
-        <v>203.8091622035011</v>
+        <v>1643.993922605374</v>
       </c>
       <c r="E5" t="n">
-        <v>203.8091622035011</v>
+        <v>1241.410397721919</v>
       </c>
       <c r="F5" t="n">
-        <v>190.9551277738829</v>
+        <v>824.5159592518966</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>483.8277400569167</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>483.8277400569167</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M5" t="n">
-        <v>1022.086525067009</v>
+        <v>773.3325661833835</v>
       </c>
       <c r="N5" t="n">
-        <v>1549.897808704471</v>
+        <v>1286.935244793072</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.9374095968</v>
+        <v>1726.9748456854</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.52377139892</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.416962102438</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="W5" t="n">
-        <v>1001.417927070725</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="X5" t="n">
-        <v>1000.794616994297</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="Y5" t="n">
-        <v>604.303907914898</v>
+        <v>2037.169424102444</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>791.481975908281</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>2036.433443595207</v>
+        <v>1985.128818155982</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1706.251474293497</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1483.711472664564</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1253.594226797851</v>
       </c>
       <c r="X6" t="n">
-        <v>994.6579769757473</v>
+        <v>1122.592527273735</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>943.2783103492424</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.87392956865301</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="C7" t="n">
-        <v>73.87392956865301</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865301</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865301</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865301</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865301</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865301</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T7" t="n">
-        <v>618.2256087514338</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="U7" t="n">
-        <v>618.2256087514338</v>
+        <v>330.7944043549183</v>
       </c>
       <c r="V7" t="n">
-        <v>618.2256087514338</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="W7" t="n">
-        <v>618.2256087514338</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="X7" t="n">
-        <v>384.1452865344169</v>
+        <v>64.81505917574253</v>
       </c>
       <c r="Y7" t="n">
-        <v>161.0332253510602</v>
+        <v>64.81505917574253</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>858.7708888264908</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="C8" t="n">
-        <v>858.7708888264908</v>
+        <v>1716.72027401471</v>
       </c>
       <c r="D8" t="n">
-        <v>473.3297600431586</v>
+        <v>1716.72027401471</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431586</v>
+        <v>1314.136749131254</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4805,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>899.6156178475343</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1427.426901484996</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>1867.466502377325</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1719.881618012246</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>1377.774808715765</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W8" t="n">
-        <v>1377.774808715765</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="X8" t="n">
-        <v>988.3222036488215</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="Y8" t="n">
-        <v>858.7708888264908</v>
+        <v>2109.895775511779</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.0359480608643</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -5005,7 +5005,7 @@
         <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.2439667521655</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1370.477011451001</v>
+        <v>1714.395101119023</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.477011451001</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.832157813862</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E11" t="n">
-        <v>726.0449080766007</v>
+        <v>748.5837713937472</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9467447527723</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527723</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2984.647095423699</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2367.788005617431</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689663</v>
+        <v>2043.093571684226</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>803.0057595505241</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.783730761083</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O12" t="n">
-        <v>1975.304013352064</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.325628668934</v>
+        <v>254.6298380530037</v>
       </c>
       <c r="C13" t="n">
-        <v>472.8495292029532</v>
+        <v>254.6298380530037</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029532</v>
+        <v>229.5639405910313</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,49 +5200,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
         <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245443</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915625</v>
+        <v>741.8597555915626</v>
       </c>
       <c r="W13" t="n">
-        <v>530.325628668934</v>
+        <v>530.3256286689341</v>
       </c>
       <c r="X13" t="n">
-        <v>530.325628668934</v>
+        <v>368.0415815981111</v>
       </c>
       <c r="Y13" t="n">
-        <v>530.325628668934</v>
+        <v>368.0415815981111</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1691.856237801876</v>
+        <v>1780.935942880363</v>
       </c>
       <c r="C14" t="n">
-        <v>1370.477011451</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D14" t="n">
-        <v>1056.832157813862</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>726.0449080766006</v>
+        <v>815.1246131550879</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527722</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3087.645959013118</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2935.941631718728</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2751.985177299521</v>
       </c>
       <c r="V14" t="n">
-        <v>2662.905472221033</v>
+        <v>2751.985177299521</v>
       </c>
       <c r="W14" t="n">
-        <v>2662.905472221033</v>
+        <v>2751.985177299521</v>
       </c>
       <c r="X14" t="n">
-        <v>2345.249142300284</v>
+        <v>2434.328847378771</v>
       </c>
       <c r="Y14" t="n">
-        <v>2020.554708367079</v>
+        <v>2109.634413445566</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>649.2884878681182</v>
+        <v>473.1077715468678</v>
       </c>
       <c r="C16" t="n">
-        <v>550.8796450803013</v>
+        <v>374.6989287590509</v>
       </c>
       <c r="D16" t="n">
-        <v>467.04280712901</v>
+        <v>290.8620908077595</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083495</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675164</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,7 +5437,7 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
         <v>489.4106539027736</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128936</v>
+        <v>1307.944934844848</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>1094.302418232943</v>
       </c>
       <c r="V16" t="n">
-        <v>924.9842784840486</v>
+        <v>900.1193481999609</v>
       </c>
       <c r="W16" t="n">
-        <v>924.9842784840486</v>
+        <v>900.1193481999609</v>
       </c>
       <c r="X16" t="n">
-        <v>762.7002314132255</v>
+        <v>737.8353011291379</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.7002314132255</v>
+        <v>586.5195150919751</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5671,25 +5671,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,13 +5786,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443166</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5902,7 +5902,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5923,10 +5923,10 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6026,10 +6026,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6078,13 +6078,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>2262.088962721623</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O24" t="n">
-        <v>2262.088962721623</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P24" t="n">
-        <v>2262.088962721623</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6139,7 +6139,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,22 +6148,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343048</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>683.142663665514</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072221</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6206,22 +6206,22 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6233,40 +6233,40 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
         <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
         <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6315,13 +6315,13 @@
         <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.707882522574</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904113</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>662.7810101642755</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1249.152663612378</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2416.016209023994</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>2949.107171645895</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3390.34602550699</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6534,31 +6534,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985354</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
         <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.528880919201</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.707882522574</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904114</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,7 +6661,7 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
         <v>594.5974356026481</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041217</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1722.160576876728</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2249.97186051419</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901622</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.34117404257</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>2269.517383258269</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="O33" t="n">
-        <v>2269.517383258269</v>
+        <v>2267.524970619852</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965125</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918663</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237457</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123128</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431911</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803363</v>
+        <v>231.2685546898324</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812063</v>
+        <v>395.3961945636322</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465405</v>
+        <v>693.3398934768792</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>982.3291861103351</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1145.033953152043</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250179</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395512</v>
+        <v>835.7257283273674</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000934</v>
+        <v>666.3144371400703</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124411</v>
+        <v>546.1532258045786</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584491</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -7017,22 +7017,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1942.349816659396</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,49 +7069,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7266,10 +7266,10 @@
         <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184696</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879427</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7418,10 +7418,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
@@ -7430,10 +7430,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7494,19 +7494,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,22 +7570,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,19 +7679,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,16 +7810,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P46" t="n">
         <v>1094.779966106229</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>224.1336100998645</v>
       </c>
       <c r="Q2" t="n">
-        <v>313.0152314302038</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N3" t="n">
-        <v>247.0771922093714</v>
+        <v>176.3150620066314</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8216,25 +8216,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>441.7274009098774</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>380.2272642146517</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8301,13 +8301,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886037</v>
+        <v>604.1626973083971</v>
       </c>
       <c r="O6" t="n">
-        <v>232.4345549924656</v>
+        <v>183.6305080413536</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
@@ -8453,13 +8453,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>149.7250515977273</v>
+        <v>477.1304116531281</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>466.8029043711341</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8696,7 +8696,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8769,22 +8769,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>259.5940292362812</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,10 +9018,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9255,13 +9255,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9726,16 +9726,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.5494662449327</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9963,16 +9963,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>220.884447093964</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10443,7 +10443,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>206.6446779083334</v>
+        <v>206.6446779083338</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10665,7 +10665,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10677,13 +10677,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>298.4852906721864</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10914,13 +10914,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,22 +11142,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>233.1066041632754</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>147.5112319245281</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>40.52341588861782</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>58.18323108442575</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>75.64278518289632</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>255.0613059639788</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5.748654853203433</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901683</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>26.96738609777009</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.613700051435072e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-5.329070518200751e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733051.5077522421</v>
+        <v>733051.5077522423</v>
       </c>
     </row>
     <row r="7">
@@ -26314,43 +26314,43 @@
         <v>432797.2274240564</v>
       </c>
       <c r="C2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240562</v>
       </c>
       <c r="D2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240563</v>
       </c>
       <c r="E2" t="n">
         <v>382461.6562185611</v>
       </c>
       <c r="F2" t="n">
-        <v>382461.6562185611</v>
+        <v>382461.6562185612</v>
       </c>
       <c r="G2" t="n">
         <v>432797.2274240563</v>
       </c>
       <c r="H2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240564</v>
       </c>
       <c r="I2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240564</v>
       </c>
       <c r="J2" t="n">
         <v>432797.2274240563</v>
       </c>
       <c r="K2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240563</v>
       </c>
       <c r="L2" t="n">
-        <v>432797.2274240559</v>
+        <v>432797.2274240561</v>
       </c>
       <c r="M2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240562</v>
       </c>
       <c r="N2" t="n">
         <v>432797.2274240563</v>
       </c>
       <c r="O2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240562</v>
       </c>
       <c r="P2" t="n">
         <v>432797.2274240563</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668193</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539679</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.69404277122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="D4" t="n">
         <v>154346.0890704043</v>
@@ -26427,7 +26427,7 @@
         <v>74084.49552373748</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.4955237375</v>
+        <v>74084.49552373748</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
@@ -26436,7 +26436,7 @@
         <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="J4" t="n">
         <v>122593.9044797028</v>
@@ -26445,10 +26445,10 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153197</v>
@@ -26457,7 +26457,7 @@
         <v>121843.4120153197</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,19 +26485,19 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16701.87476787638</v>
+        <v>19850.22535465049</v>
       </c>
       <c r="C6" t="n">
-        <v>198906.8230597322</v>
+        <v>193708.8823887054</v>
       </c>
       <c r="D6" t="n">
-        <v>194043.540765857</v>
+        <v>186307.2515424654</v>
       </c>
       <c r="E6" t="n">
-        <v>143068.5795209385</v>
+        <v>142858.847974249</v>
       </c>
       <c r="F6" t="n">
-        <v>255191.140994983</v>
+        <v>254981.4094482936</v>
       </c>
       <c r="G6" t="n">
-        <v>205358.7205565351</v>
+        <v>205358.720556535</v>
       </c>
       <c r="H6" t="n">
-        <v>252784.0460932169</v>
+        <v>252784.046093217</v>
       </c>
       <c r="I6" t="n">
         <v>252784.046093217</v>
       </c>
       <c r="J6" t="n">
-        <v>39742.12849593151</v>
+        <v>46258.41365050459</v>
       </c>
       <c r="K6" t="n">
-        <v>246544.2776904341</v>
+        <v>246544.277690434</v>
       </c>
       <c r="L6" t="n">
-        <v>191361.6887558125</v>
+        <v>187312.8515453404</v>
       </c>
       <c r="M6" t="n">
-        <v>210583.216633594</v>
+        <v>209531.5216224057</v>
       </c>
       <c r="N6" t="n">
-        <v>252784.046093217</v>
+        <v>252784.0460932169</v>
       </c>
       <c r="O6" t="n">
-        <v>225016.3520504457</v>
+        <v>225016.3520504456</v>
       </c>
       <c r="P6" t="n">
-        <v>252784.046093217</v>
+        <v>252784.0460932169</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="K2" t="n">
         <v>93.99127447431648</v>
       </c>
-      <c r="K2" t="n">
-        <v>93.99127447431646</v>
-      </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095202</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26917,10 +26917,10 @@
         <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660692</v>
+        <v>78.07030221924599</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551342</v>
+        <v>17.58004954287438</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407288</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085241</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>125.6650822560818</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>145.5929155045089</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>13.16628316655095</v>
       </c>
       <c r="V3" t="n">
-        <v>185.1777423863162</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>243.0689069474662</v>
       </c>
       <c r="W4" t="n">
-        <v>5.570268529109967</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>91.64450825390844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>384.9410020406094</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>7.656667631068444</v>
+        <v>57.72232434461384</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.06823567980513</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>108.6847868140828</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>25.3970464704197</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>264.2700003144975</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1400749395018</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,13 +28743,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668825</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,10 +28761,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28995,13 +28995,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P22" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29220,13 +29220,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5.636002634528836</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901132</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K29" t="n">
-        <v>86.65052755599521</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>86.65052755599481</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R29" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>86.27291196566438</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>43.49509683159843</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224714</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254009</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30183,10 +30183,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.636002634528936</v>
+        <v>35.71049010668756</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>35.71049010668821</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30490,7 +30490,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30642,25 +30642,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5.636002634528316</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30882,19 +30882,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>5.636002634528353</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>73.83216285893927</v>
       </c>
       <c r="Q2" t="n">
-        <v>168.5165330118117</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N3" t="n">
-        <v>161.7050793552047</v>
+        <v>90.94294915246475</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>298.66899773064</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>230.5022126169244</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O6" t="n">
-        <v>139.7469961035767</v>
+        <v>90.94294915246475</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>327.4053600554008</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>316.5014571302089</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35416,7 +35416,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35489,22 +35489,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>172.5106644169666</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35650,7 +35650,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M14" t="n">
         <v>551.5160606510915</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,10 +35738,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35975,13 +35975,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529181</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36291,13 +36291,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P22" t="n">
         <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>193.8093140873208</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700705</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>135.5123342397974</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>449.2589679877748</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,10 +36841,10 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>619.793238300906</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.083244740921</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>437.9774494722521</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>230.2077838426576</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273768</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>119.5613130890187</v>
+        <v>119.5613130890192</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791188</v>
+        <v>82.70543230055097</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>291.9083763974302</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047504983</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37397,13 +37397,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>205.7977317832975</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37479,10 +37479,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724871</v>
+        <v>156.7975262446457</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37634,13 +37634,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>119.5613130890187</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>201.4959849287082</v>
+        <v>294.0834769302974</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510925</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
@@ -37862,22 +37862,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,19 +38178,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
